--- a/BOM/parts.xlsx
+++ b/BOM/parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\YoutubeSubCounter\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F7392-E41D-4CF5-BC6B-F94C43BB035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF79C56-695D-4E8B-BC70-5678542EA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{D16D055C-C2BF-4740-BDA1-5A229D7942FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D16D055C-C2BF-4740-BDA1-5A229D7942FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Part</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Seeed Xiao Wifi</t>
   </si>
   <si>
-    <t>2 digit 7 segment display</t>
-  </si>
-  <si>
     <t>Protoboard</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Led driver</t>
   </si>
   <si>
-    <t>m3 headed inserts</t>
-  </si>
-  <si>
     <t>m3 screws</t>
   </si>
   <si>
@@ -141,16 +135,57 @@
   </si>
   <si>
     <t>m2 standoffs</t>
+  </si>
+  <si>
+    <t>2 digit 7 segment display (option1 )</t>
+  </si>
+  <si>
+    <t>LDD-C404NI</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/lumex-opto-components-inc/LDD-C404NI/252609</t>
+  </si>
+  <si>
+    <t>CDTC40R1W</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/chromeled/CDTC40R1W/13908466</t>
+  </si>
+  <si>
+    <t>3 digit 7 segment display (option2 )</t>
+  </si>
+  <si>
+    <t>4 digit 7 segment display (option3 )</t>
+  </si>
+  <si>
+    <t>m3 heated inserts</t>
+  </si>
+  <si>
+    <t>Nyon washer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,13 +208,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,16 +530,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198848B2-3438-4A63-8D22-45D816F04DF7}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,7 +559,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -545,134 +583,176 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{A8DE31A9-3006-48E6-8C0F-5388E233C163}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{098238A0-672A-4A41-BD54-2E0D2CF44C11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM/parts.xlsx
+++ b/BOM/parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\YoutubeSubCounter\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF79C56-695D-4E8B-BC70-5678542EA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B0019-7A57-4844-84EE-9F65D7B9DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D16D055C-C2BF-4740-BDA1-5A229D7942FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Part</t>
   </si>
@@ -74,36 +74,21 @@
     <t>Programable LEDs</t>
   </si>
   <si>
-    <t>Led driver</t>
-  </si>
-  <si>
     <t>m3 screws</t>
   </si>
   <si>
     <t>MCU/WiFi</t>
   </si>
   <si>
-    <t>7Seg</t>
-  </si>
-  <si>
     <t>Bell</t>
   </si>
   <si>
-    <t>Servo</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
-    <t xml:space="preserve">10K </t>
-  </si>
-  <si>
     <t>40k Resistor</t>
   </si>
   <si>
-    <t>LED Strip</t>
-  </si>
-  <si>
     <t>330 ohm resistor</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>18 gauge wire</t>
   </si>
   <si>
-    <t>10 uF</t>
-  </si>
-  <si>
     <t>Misc</t>
   </si>
   <si>
@@ -140,28 +122,138 @@
     <t>2 digit 7 segment display (option1 )</t>
   </si>
   <si>
-    <t>LDD-C404NI</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/lumex-opto-components-inc/LDD-C404NI/252609</t>
-  </si>
-  <si>
-    <t>CDTC40R1W</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/chromeled/CDTC40R1W/13908466</t>
-  </si>
-  <si>
-    <t>3 digit 7 segment display (option2 )</t>
-  </si>
-  <si>
-    <t>4 digit 7 segment display (option3 )</t>
-  </si>
-  <si>
     <t>m3 heated inserts</t>
   </si>
   <si>
     <t>Nyon washer</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3IKla2f</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3w3dcJP</t>
+  </si>
+  <si>
+    <t>eSUN PLA PRO (PLA+)</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3Xcvggw</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3Xc3AbA</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3GFLVSS</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Seeed-XIAO-ESP32C3-p-5431.html</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3H4Qesj</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3CMKZuA</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3H5EIgn</t>
+  </si>
+  <si>
+    <t>10K pull up resistor</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3CIMHgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS2812B Addressable </t>
+  </si>
+  <si>
+    <t>https://amzn.to/3QFQMIe</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc-maxim-integrated/MAX7219CNG/154002</t>
+  </si>
+  <si>
+    <t>MAX7219CNG-ND</t>
+  </si>
+  <si>
+    <t>Led driver (option1 )</t>
+  </si>
+  <si>
+    <t>Led driver (option2 )</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3ZCjGgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Seg
+0.630" H x 0.791" W x 0.276" D (16.00mm x 20.10mm x 7.00mm)
+</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3ZuW1yB</t>
+  </si>
+  <si>
+    <t>4021AH</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3H21jKE</t>
+  </si>
+  <si>
+    <t>Servo plastic Gear (option1 )</t>
+  </si>
+  <si>
+    <t>Servo Metal Gear (option2 )</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3W76q0h</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3J5jtwD</t>
+  </si>
+  <si>
+    <t>LED Strip 5V</t>
+  </si>
+  <si>
+    <t>10uF -1000 uF</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3XcpWK9</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3ZBiMRh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12MM  Momentary Push Button </t>
+  </si>
+  <si>
+    <t>https://amzn.to/3CNH2pL</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Glue gun</t>
+  </si>
+  <si>
+    <t>Solder Iron</t>
+  </si>
+  <si>
+    <t>Presestion screwdriver set</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3iKfUkm</t>
+  </si>
+  <si>
+    <t>Dremel /Rotary Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer with Arduino </t>
+  </si>
+  <si>
+    <t>USB-A to USB-C</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3GCiJfv</t>
   </si>
 </sst>
 </file>
@@ -212,9 +304,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,17 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198848B2-3438-4A63-8D22-45D816F04DF7}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -559,7 +655,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -569,190 +665,388 @@
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>31</v>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{A8DE31A9-3006-48E6-8C0F-5388E233C163}"/>
-    <hyperlink ref="E15" r:id="rId2" xr:uid="{098238A0-672A-4A41-BD54-2E0D2CF44C11}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8C665519-188E-403C-8C78-A1DA80BE3801}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{7B820A21-A10B-4F53-BF8D-028E6EAAFD14}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{30B8558D-E9AD-400A-B81B-5F423778F1F9}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{1F0D60A9-20F5-4E47-8447-04853D8D78C9}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{17C3AC68-21F3-45C9-8408-95FEFB8D9D23}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{DED56659-9914-4E2E-A38D-C4626EC0F85B}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{4E9F896E-AD54-4B70-940E-D185AD856046}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{0322B732-4CBA-460C-85D1-E592B1E11824}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{621E903A-E9F3-4295-9768-67C6E0881630}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{CF009C6D-E9E6-4FF6-A679-F5F64F493A24}"/>
+    <hyperlink ref="E19" r:id="rId11" xr:uid="{6A836DDD-38F6-45EF-A8E2-80A65FA2A8A0}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{E6A776B8-B448-4F9D-B582-DDEEF32D8BAE}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{850435F8-0228-4DA8-925F-3602A20F61C5}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{BC86D896-8907-4F8C-A67B-BE110E2EF5F6}"/>
+    <hyperlink ref="E29" r:id="rId15" xr:uid="{880BA713-FE51-4673-A287-987E9A3E67A1}"/>
+    <hyperlink ref="E30" r:id="rId16" xr:uid="{73CBAD40-DE6A-4F00-AD14-FA81FFF1E039}"/>
+    <hyperlink ref="E31" r:id="rId17" xr:uid="{258EFEF4-D5E7-4668-848A-37B431BB6CC7}"/>
+    <hyperlink ref="E32" r:id="rId18" xr:uid="{DAB3B153-9EBC-4FC1-AAA0-6F69AF33D3CD}"/>
+    <hyperlink ref="E34" r:id="rId19" xr:uid="{F5BDA69D-5B5E-42BA-8245-D030BEE15672}"/>
+    <hyperlink ref="E36" r:id="rId20" xr:uid="{71E7A8F1-D880-4EDD-8379-BF3E63D286FB}"/>
+    <hyperlink ref="E42" r:id="rId21" xr:uid="{A6A9C098-C2A8-42BB-A4E7-6DA4AC0EE561}"/>
+    <hyperlink ref="E37" r:id="rId22" xr:uid="{030A3E98-8152-43B1-9B78-68060C0F99FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>